--- a/data/trans_orig/Q4501_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q4501_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>60664</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47225</v>
+        <v>47000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77353</v>
+        <v>76959</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1227856007395574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09558554441590199</v>
+        <v>0.09512864070177475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1565653455098628</v>
+        <v>0.1557664908332865</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -764,19 +764,19 @@
         <v>100813</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84897</v>
+        <v>84738</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117954</v>
+        <v>118815</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2156487666038871</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1816018967998834</v>
+        <v>0.1812615224038254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2523146444219026</v>
+        <v>0.254155010868519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -785,19 +785,19 @@
         <v>161477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140907</v>
+        <v>138421</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186821</v>
+        <v>186802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1679339377842906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1465413649807409</v>
+        <v>0.1439561117854743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1942909603241359</v>
+        <v>0.1942709833939446</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>56390</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42702</v>
+        <v>44153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72157</v>
+        <v>71191</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1141343451055038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08643079613425401</v>
+        <v>0.0893660538836414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1460484909388093</v>
+        <v>0.1440920613368396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>113</v>
@@ -835,19 +835,19 @@
         <v>109222</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91914</v>
+        <v>92157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127330</v>
+        <v>127504</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2336344226255752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1966116013939143</v>
+        <v>0.1971315102345786</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2723710990342151</v>
+        <v>0.2727425635731834</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>172</v>
@@ -856,19 +856,19 @@
         <v>165611</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>144286</v>
+        <v>146538</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>189248</v>
+        <v>192971</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1722330511589912</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1500555583005056</v>
+        <v>0.1523967348568031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1968151703049334</v>
+        <v>0.2006873037948854</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>135982</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>116378</v>
+        <v>117229</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>155797</v>
+        <v>155331</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2752313663479108</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2355524304287225</v>
+        <v>0.2372756003081982</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3153378431105322</v>
+        <v>0.3143949869703512</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>137</v>
@@ -906,19 +906,19 @@
         <v>129028</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111907</v>
+        <v>109612</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149677</v>
+        <v>146358</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2760017186190023</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2393781811084759</v>
+        <v>0.2344706202739605</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.320172141862513</v>
+        <v>0.3130727583120836</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>281</v>
@@ -927,19 +927,19 @@
         <v>265010</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>240523</v>
+        <v>240377</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>292474</v>
+        <v>297098</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.275605897235962</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2501398425608036</v>
+        <v>0.2499878507097238</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3041683559129295</v>
+        <v>0.3089771598120853</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>79912</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64343</v>
+        <v>63777</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97047</v>
+        <v>98388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1617446545212936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1302327492639486</v>
+        <v>0.1290863630748422</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1964253266921386</v>
+        <v>0.1991405205600436</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -977,19 +977,19 @@
         <v>51840</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38375</v>
+        <v>40234</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65443</v>
+        <v>67240</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.110889417780758</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08208684308450502</v>
+        <v>0.08606331186458695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1399882937491562</v>
+        <v>0.1438325796102032</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>133</v>
@@ -998,19 +998,19 @@
         <v>131752</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>112765</v>
+        <v>111146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>155219</v>
+        <v>153471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.137019788128026</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1172742030543301</v>
+        <v>0.1155897364815541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.16142548302467</v>
+        <v>0.1596070955248923</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>161116</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>140358</v>
+        <v>138356</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>182721</v>
+        <v>180432</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3261040332857345</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2840878285385462</v>
+        <v>0.2800356290733244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3698333107790179</v>
+        <v>0.3651991836211662</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1048,19 +1048,19 @@
         <v>76587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>61991</v>
+        <v>61355</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93582</v>
+        <v>92927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1638256743707774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1326046736559713</v>
+        <v>0.1312447468919615</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2001800936848611</v>
+        <v>0.1987783013509359</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>239</v>
@@ -1069,19 +1069,19 @@
         <v>237703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>211259</v>
+        <v>209928</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>262834</v>
+        <v>265167</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2472073256927302</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2197062348094881</v>
+        <v>0.2183215432996875</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.273342803584212</v>
+        <v>0.2757694993299629</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>81216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63876</v>
+        <v>64711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98922</v>
+        <v>99458</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1104239983179047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08684843658024086</v>
+        <v>0.08798335508002868</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1344987608959584</v>
+        <v>0.1352264585057646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>176</v>
@@ -1194,19 +1194,19 @@
         <v>185187</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>162856</v>
+        <v>163177</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>208216</v>
+        <v>210161</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2960648211808156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2603631580040306</v>
+        <v>0.2608764408471018</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3328823584260817</v>
+        <v>0.3359922546706964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>251</v>
@@ -1215,19 +1215,19 @@
         <v>266402</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>235378</v>
+        <v>237785</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>295650</v>
+        <v>295885</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1957426510647752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.172947250849585</v>
+        <v>0.1747154995704047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2172329256843086</v>
+        <v>0.217405262316739</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>138887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117225</v>
+        <v>115869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160452</v>
+        <v>160094</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.188836194833922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1593832659878202</v>
+        <v>0.1575398562564646</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2181565466463735</v>
+        <v>0.2176705982681145</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>167</v>
@@ -1265,19 +1265,19 @@
         <v>174868</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151957</v>
+        <v>151387</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198594</v>
+        <v>197667</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2795671276946645</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2429391850615471</v>
+        <v>0.2420271380861965</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3175001812142041</v>
+        <v>0.3160175992896764</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>300</v>
@@ -1286,19 +1286,19 @@
         <v>313754</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>284372</v>
+        <v>285672</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>347296</v>
+        <v>347087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2305352178977327</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2089463057121282</v>
+        <v>0.2099013488040427</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2551806014621645</v>
+        <v>0.255027192188477</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>190011</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>165121</v>
+        <v>167939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>214873</v>
+        <v>217236</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2583460648902492</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2245048584564751</v>
+        <v>0.2283368250037119</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.292149306664227</v>
+        <v>0.2953627677895777</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>141</v>
@@ -1336,19 +1336,19 @@
         <v>149853</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>130325</v>
+        <v>129905</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>174097</v>
+        <v>171828</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2395754394501241</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2083551288287692</v>
+        <v>0.2076845287361717</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2783351772980548</v>
+        <v>0.2747078747996429</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>325</v>
@@ -1357,19 +1357,19 @@
         <v>339863</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>306326</v>
+        <v>308125</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>373329</v>
+        <v>373711</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2497192744619917</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2250769763464368</v>
+        <v>0.2263990563890977</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2743082680433466</v>
+        <v>0.2745894295819653</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>121588</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>102515</v>
+        <v>101114</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144599</v>
+        <v>143870</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1653165247337481</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1393827854725679</v>
+        <v>0.1374791133468322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1966030124220298</v>
+        <v>0.1956120340027726</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1407,19 +1407,19 @@
         <v>39579</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27805</v>
+        <v>28142</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53538</v>
+        <v>54165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06327640234772998</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04445310978575868</v>
+        <v>0.04499205839168747</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08559313137417987</v>
+        <v>0.08659475819627376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -1428,19 +1428,19 @@
         <v>161167</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139183</v>
+        <v>138067</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186954</v>
+        <v>187852</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1184199120499643</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1022664251842403</v>
+        <v>0.1014469651715343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1373671938957064</v>
+        <v>0.138026494932557</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>203787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>180300</v>
+        <v>177952</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229092</v>
+        <v>227024</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.277077217224176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2451428860557609</v>
+        <v>0.2419503445619046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3114830139288688</v>
+        <v>0.3086707720388288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -1478,19 +1478,19 @@
         <v>76008</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59635</v>
+        <v>59175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94332</v>
+        <v>93904</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1215162093266659</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09534032296322283</v>
+        <v>0.09460510825322227</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1508120122035024</v>
+        <v>0.1501277527857781</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>266</v>
@@ -1499,19 +1499,19 @@
         <v>279795</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249125</v>
+        <v>251220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>310232</v>
+        <v>309003</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2055829445255362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1830476416030754</v>
+        <v>0.1845872138655489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2279468892628198</v>
+        <v>0.2270441693954827</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>92619</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76508</v>
+        <v>76164</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>112867</v>
+        <v>113193</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1452506621850084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1199840344360417</v>
+        <v>0.1194445954859143</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1770042986632134</v>
+        <v>0.1775167010247466</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>234</v>
@@ -1624,19 +1624,19 @@
         <v>245220</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>220272</v>
+        <v>221188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>271771</v>
+        <v>271273</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.35552343617817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.319352942629944</v>
+        <v>0.3206818516647832</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3940164943740069</v>
+        <v>0.3932950843431893</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>325</v>
@@ -1645,19 +1645,19 @@
         <v>337839</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>305955</v>
+        <v>304697</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>368103</v>
+        <v>368942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2545132277805696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2304930903107308</v>
+        <v>0.229545496926674</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2773128375664082</v>
+        <v>0.2779444349284246</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>106359</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89613</v>
+        <v>87693</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127022</v>
+        <v>125147</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1667982855392269</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1405363590191496</v>
+        <v>0.1375256538332598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1992038002311081</v>
+        <v>0.1962638091950081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -1695,19 +1695,19 @@
         <v>143092</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>123389</v>
+        <v>124133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164958</v>
+        <v>167829</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2074573612150375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1788916962452538</v>
+        <v>0.1799695095316404</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2391577242803726</v>
+        <v>0.243320683967829</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>242</v>
@@ -1716,19 +1716,19 @@
         <v>249451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>220598</v>
+        <v>219765</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>277522</v>
+        <v>277395</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1879256756369464</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1661887007738305</v>
+        <v>0.165561142987145</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2090725814296624</v>
+        <v>0.2089768081896589</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>174311</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>152068</v>
+        <v>153111</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>198983</v>
+        <v>196956</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2733652191074096</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2384820008681394</v>
+        <v>0.2401185190568949</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3120573928037171</v>
+        <v>0.3088780927063242</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>179</v>
@@ -1766,19 +1766,19 @@
         <v>186845</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>162654</v>
+        <v>162026</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>208827</v>
+        <v>211489</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2708909650027514</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2358173648616896</v>
+        <v>0.2349077148559871</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3027597067480816</v>
+        <v>0.3066198121531912</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>347</v>
@@ -1787,19 +1787,19 @@
         <v>361157</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>329156</v>
+        <v>329614</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>392644</v>
+        <v>394986</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2720795398143828</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2479716887564156</v>
+        <v>0.2483168744976552</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2958006838194393</v>
+        <v>0.2975647568801283</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>86925</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69786</v>
+        <v>70890</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105813</v>
+        <v>106074</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1363214555190415</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1094418814950986</v>
+        <v>0.1111745904772434</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1659419524675421</v>
+        <v>0.166351322468486</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1837,19 +1837,19 @@
         <v>47382</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36337</v>
+        <v>35530</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62942</v>
+        <v>63093</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06869533160511909</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05268187159033808</v>
+        <v>0.05151144440986326</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09125411673748783</v>
+        <v>0.09147266131812005</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -1858,19 +1858,19 @@
         <v>134308</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113802</v>
+        <v>113977</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156401</v>
+        <v>158562</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1011813674334637</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08573359154076933</v>
+        <v>0.08586529248501373</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1178256148222156</v>
+        <v>0.1194535348595496</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>177435</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>153172</v>
+        <v>155034</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>200296</v>
+        <v>203464</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2782643776493136</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2402130244210619</v>
+        <v>0.2431336093996648</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.314116301495816</v>
+        <v>0.3190841266676792</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1908,19 +1908,19 @@
         <v>67204</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52325</v>
+        <v>51965</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>86771</v>
+        <v>83422</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09743290599892203</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07586217866104153</v>
+        <v>0.07533892402378493</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1258014988856262</v>
+        <v>0.120945823772466</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>231</v>
@@ -1929,19 +1929,19 @@
         <v>244639</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>215353</v>
+        <v>218202</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>273602</v>
+        <v>274703</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1843001893346375</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1622373564577392</v>
+        <v>0.1643834128161442</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2061196145198408</v>
+        <v>0.2069493650719248</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>74690</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59990</v>
+        <v>60003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93520</v>
+        <v>94156</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1438711875246469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1155558517228469</v>
+        <v>0.1155806500951638</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1801419743168655</v>
+        <v>0.1813670705059307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>152</v>
@@ -2054,19 +2054,19 @@
         <v>158082</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>136327</v>
+        <v>139032</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>178967</v>
+        <v>179046</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3071936719010067</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.264919440769503</v>
+        <v>0.2701755667735001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3477801708767793</v>
+        <v>0.3479335185684616</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -2075,19 +2075,19 @@
         <v>232772</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>208163</v>
+        <v>207372</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>259723</v>
+        <v>261024</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2251731687431583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2013678997345829</v>
+        <v>0.2006021057347153</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.251244797770339</v>
+        <v>0.2525032721685266</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>63401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>48168</v>
+        <v>49949</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>80483</v>
+        <v>82124</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.122126244010969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09278328243309154</v>
+        <v>0.09621398279470962</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1550290426291163</v>
+        <v>0.1581906753811068</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>108</v>
@@ -2125,19 +2125,19 @@
         <v>112195</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>94489</v>
+        <v>93893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>131724</v>
+        <v>131244</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.218025081953531</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.183616636506083</v>
+        <v>0.1824581769816463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2559738450452173</v>
+        <v>0.2550407155886395</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>168</v>
@@ -2146,19 +2146,19 @@
         <v>175597</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>152533</v>
+        <v>154353</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>203625</v>
+        <v>202975</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1698647140143789</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1475538753546136</v>
+        <v>0.1493143618856389</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1969776539134798</v>
+        <v>0.196348612159403</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>125947</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>106419</v>
+        <v>107020</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>147603</v>
+        <v>145872</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2426046295099057</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2049873970849008</v>
+        <v>0.2061459669585279</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2843186975975737</v>
+        <v>0.2809838214401069</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>121</v>
@@ -2196,19 +2196,19 @@
         <v>123468</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>106259</v>
+        <v>105367</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>143294</v>
+        <v>145081</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2399314637535812</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2064886325775291</v>
+        <v>0.2047555663473334</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2784582475608202</v>
+        <v>0.2819292944792933</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>240</v>
@@ -2217,19 +2217,19 @@
         <v>249416</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>222347</v>
+        <v>220642</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>279750</v>
+        <v>276788</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2412739268026542</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2150883456491815</v>
+        <v>0.2134395765715712</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2706174276065561</v>
+        <v>0.2677524201703998</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>69952</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56341</v>
+        <v>55540</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88753</v>
+        <v>86535</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1347450234811595</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1085262359713313</v>
+        <v>0.1069836171119751</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1709586351376416</v>
+        <v>0.1666872647570065</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -2267,19 +2267,19 @@
         <v>43040</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32762</v>
+        <v>31149</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>56387</v>
+        <v>55258</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08363774048877606</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06366533298508956</v>
+        <v>0.06053016928211386</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1095751562188876</v>
+        <v>0.1073810120306831</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>107</v>
@@ -2288,19 +2288,19 @@
         <v>112992</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>94543</v>
+        <v>92548</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>133755</v>
+        <v>134404</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1093038028320733</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09145642319215229</v>
+        <v>0.08952660587602991</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1293888774032046</v>
+        <v>0.1300169025312241</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>185155</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>163133</v>
+        <v>165259</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>210233</v>
+        <v>207739</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3566529154733187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.314232053863487</v>
+        <v>0.3183278235193933</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4049577674653795</v>
+        <v>0.4001537170778084</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>77</v>
@@ -2338,19 +2338,19 @@
         <v>77814</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61643</v>
+        <v>61298</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>95322</v>
+        <v>93955</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1512120419031051</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1197885988217472</v>
+        <v>0.1191177685668541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1852345475003706</v>
+        <v>0.182578986584754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>249</v>
@@ -2359,19 +2359,19 @@
         <v>262969</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>236969</v>
+        <v>237219</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>295625</v>
+        <v>293845</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2543843876077352</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2292332844041149</v>
+        <v>0.229475437409692</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2859745286559158</v>
+        <v>0.2842528244485207</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>52630</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>41300</v>
+        <v>39539</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>69042</v>
+        <v>65436</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1360970432056855</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1067991372318612</v>
+        <v>0.1022446793793655</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1785359600187539</v>
+        <v>0.1692126418822324</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>112</v>
@@ -2484,19 +2484,19 @@
         <v>117172</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>99730</v>
+        <v>99412</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>135349</v>
+        <v>136185</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2915447244895413</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2481452033772051</v>
+        <v>0.2473556755985045</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3367710872658545</v>
+        <v>0.3388518245161797</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>164</v>
@@ -2505,19 +2505,19 @@
         <v>169802</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>148108</v>
+        <v>145844</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>195597</v>
+        <v>191634</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2153180519041874</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1878084305561378</v>
+        <v>0.1849377585278296</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2480272447327632</v>
+        <v>0.2430021533791384</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>31844</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21585</v>
+        <v>22360</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>43137</v>
+        <v>42591</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08234590384036629</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05581692121259234</v>
+        <v>0.0578216915850927</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.111547521828224</v>
+        <v>0.110136870442544</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>76</v>
@@ -2555,19 +2555,19 @@
         <v>77299</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>61673</v>
+        <v>62854</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>93924</v>
+        <v>92937</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1923331450874496</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1534520124814381</v>
+        <v>0.1563921442794301</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.233698362365329</v>
+        <v>0.2312438579992772</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>109</v>
@@ -2576,19 +2576,19 @@
         <v>109143</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>88641</v>
+        <v>90561</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>128203</v>
+        <v>129663</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1383988479794845</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1124018977984786</v>
+        <v>0.1148361808610501</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1625686708358132</v>
+        <v>0.1644191856372469</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>76262</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>61518</v>
+        <v>61567</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>93140</v>
+        <v>92781</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1972084342514714</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1590809465319778</v>
+        <v>0.1592067706132926</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2408534126258193</v>
+        <v>0.2399230458110719</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -2626,19 +2626,19 @@
         <v>67957</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>54767</v>
+        <v>54519</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84971</v>
+        <v>84199</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1690880607796149</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1362701384638161</v>
+        <v>0.1356526749808633</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.21142382568818</v>
+        <v>0.2095027980276836</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>143</v>
@@ -2647,19 +2647,19 @@
         <v>144219</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>123305</v>
+        <v>123228</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168019</v>
+        <v>167912</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1828774108935152</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1563575143069589</v>
+        <v>0.1562592519196425</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2130569667338784</v>
+        <v>0.212920889880236</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>65607</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>50844</v>
+        <v>52296</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>80790</v>
+        <v>80523</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1696546697230192</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1314779622965482</v>
+        <v>0.1352320688787762</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2089150696239077</v>
+        <v>0.208226443976966</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>40</v>
@@ -2697,19 +2697,19 @@
         <v>39524</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>28957</v>
+        <v>29519</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>52101</v>
+        <v>51607</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09834257928236706</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07204951709235688</v>
+        <v>0.0734481091707478</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1296353494142296</v>
+        <v>0.1284078699437014</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>106</v>
@@ -2718,19 +2718,19 @@
         <v>105131</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>86927</v>
+        <v>86577</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>123828</v>
+        <v>126024</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.133311794162263</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1102285453290382</v>
+        <v>0.1097847400879238</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1570209691624843</v>
+        <v>0.1598055649647324</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>160366</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>141119</v>
+        <v>140613</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>178601</v>
+        <v>178806</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4146939489794577</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3649221894453822</v>
+        <v>0.3636141260870544</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4618478879496233</v>
+        <v>0.4623767992702527</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>99</v>
@@ -2768,19 +2768,19 @@
         <v>99949</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>82349</v>
+        <v>83762</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>116698</v>
+        <v>116068</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2486914903610271</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2048985116474751</v>
+        <v>0.2084133579990745</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2903654261265484</v>
+        <v>0.2887973847528282</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>264</v>
@@ -2789,19 +2789,19 @@
         <v>260316</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>231737</v>
+        <v>235684</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>285030</v>
+        <v>285971</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3300938950605499</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2938547505651712</v>
+        <v>0.2988590107263842</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3614334911320188</v>
+        <v>0.3626263220810806</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>62447</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>47573</v>
+        <v>48495</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>76789</v>
+        <v>76996</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2140844908803339</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1630934142613471</v>
+        <v>0.1662540580176792</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2632511876296611</v>
+        <v>0.2639629663397909</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>79</v>
@@ -2914,19 +2914,19 @@
         <v>73535</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>59823</v>
+        <v>60628</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>89608</v>
+        <v>89686</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2144289050864612</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1744454550575688</v>
+        <v>0.1767926175191923</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.261298443808216</v>
+        <v>0.2615256843176018</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>140</v>
@@ -2935,19 +2935,19 @@
         <v>135982</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>117207</v>
+        <v>117312</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>157598</v>
+        <v>159534</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2142706022730163</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1846861350510097</v>
+        <v>0.1848512790249993</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2483316129341637</v>
+        <v>0.2513816863782035</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>22361</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>14179</v>
+        <v>14527</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31838</v>
+        <v>33011</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07665916560363537</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04860937819439456</v>
+        <v>0.04980363989834767</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1091503902344385</v>
+        <v>0.1131719385369738</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>47</v>
@@ -2985,19 +2985,19 @@
         <v>43278</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>31874</v>
+        <v>33092</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>55417</v>
+        <v>56166</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1261980661940285</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09294419708416184</v>
+        <v>0.09649657909517928</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1615977121448709</v>
+        <v>0.1637795417730121</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>70</v>
@@ -3006,19 +3006,19 @@
         <v>65639</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>52750</v>
+        <v>52456</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>81600</v>
+        <v>84288</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1034285427570963</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08311917592207946</v>
+        <v>0.082656985318514</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.128579554574488</v>
+        <v>0.132815331701342</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>43248</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>32180</v>
+        <v>33154</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>55500</v>
+        <v>55782</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1482667486960517</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.110319917192246</v>
+        <v>0.1136606982770031</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1902689950922458</v>
+        <v>0.191236925541175</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>50</v>
@@ -3056,19 +3056,19 @@
         <v>46982</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>35405</v>
+        <v>36325</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>58941</v>
+        <v>62357</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1370014495010589</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1032402667624382</v>
+        <v>0.1059250097043176</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1718738331978003</v>
+        <v>0.1818336610503094</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>97</v>
@@ -3077,19 +3077,19 @@
         <v>90231</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>74387</v>
+        <v>74476</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>107636</v>
+        <v>108655</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1421793095461441</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1172144992315528</v>
+        <v>0.1173545026418101</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1696052449242987</v>
+        <v>0.1712103262907971</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>34291</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>25186</v>
+        <v>24798</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46438</v>
+        <v>45740</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1175575913826795</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08634397285603147</v>
+        <v>0.08501366231086036</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1592018352007066</v>
+        <v>0.1568092158917268</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>23</v>
@@ -3127,19 +3127,19 @@
         <v>20707</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>13394</v>
+        <v>13284</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30350</v>
+        <v>29733</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0603823932082574</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03905582889143931</v>
+        <v>0.03873682704211781</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08850022943087464</v>
+        <v>0.08670053532915049</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>59</v>
@@ -3148,19 +3148,19 @@
         <v>54998</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42555</v>
+        <v>42541</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>69979</v>
+        <v>69051</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08666178171564405</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06705477297080346</v>
+        <v>0.06703370355788206</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.110267725921103</v>
+        <v>0.1088050758949653</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>129346</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>113787</v>
+        <v>113613</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>145800</v>
+        <v>147836</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4434320034372996</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3900931611298165</v>
+        <v>0.3894966836546946</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4998403482501235</v>
+        <v>0.5068213585956722</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>172</v>
@@ -3198,19 +3198,19 @@
         <v>158432</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>140854</v>
+        <v>141751</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>176561</v>
+        <v>174866</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.461989186010194</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4107329054146139</v>
+        <v>0.4133469166033084</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5148542367728021</v>
+        <v>0.5099124497316141</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>307</v>
@@ -3219,19 +3219,19 @@
         <v>287778</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>264162</v>
+        <v>261922</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>313677</v>
+        <v>310221</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4534597637080993</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4162473634326807</v>
+        <v>0.4127181385893076</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4942700188240148</v>
+        <v>0.4888235865510961</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>16986</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10398</v>
+        <v>10572</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>26916</v>
+        <v>26847</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08127995481489834</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04975292038980808</v>
+        <v>0.05058918267003024</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1287915611206823</v>
+        <v>0.1284615792231373</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>46</v>
@@ -3344,19 +3344,19 @@
         <v>53367</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>40191</v>
+        <v>41543</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>70177</v>
+        <v>68624</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1604155150172537</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1208120473768066</v>
+        <v>0.1248734127661716</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2109468866467418</v>
+        <v>0.2062782096754522</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>63</v>
@@ -3365,19 +3365,19 @@
         <v>70353</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>57566</v>
+        <v>53838</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>87676</v>
+        <v>86983</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1298831025208486</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1062759670333013</v>
+        <v>0.09939417298774017</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1618647369003051</v>
+        <v>0.1605839859760091</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>8913</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4205</v>
+        <v>4137</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>16768</v>
+        <v>16178</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04264932202244557</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0201231231347519</v>
+        <v>0.01979603191749368</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08023540386035903</v>
+        <v>0.07741373243894331</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -3415,19 +3415,19 @@
         <v>27398</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17566</v>
+        <v>18936</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>39387</v>
+        <v>39090</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.08235473260582769</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05280113247070574</v>
+        <v>0.05691949160345574</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1183934562816306</v>
+        <v>0.1175017733278494</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>34</v>
@@ -3436,19 +3436,19 @@
         <v>36311</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>25909</v>
+        <v>25095</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>49330</v>
+        <v>50644</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0670354251899074</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04783261592310508</v>
+        <v>0.04632910566545891</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09107092604243851</v>
+        <v>0.09349779608378322</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>18367</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11621</v>
+        <v>11527</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>28488</v>
+        <v>28245</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.087885246144621</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05560639606965211</v>
+        <v>0.05515690479633076</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1363140332409599</v>
+        <v>0.1351539425942236</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>19</v>
@@ -3486,19 +3486,19 @@
         <v>22241</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>14237</v>
+        <v>14014</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>34208</v>
+        <v>34223</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06685502100563534</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.04279570110500278</v>
+        <v>0.04212356314940443</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1028273107855442</v>
+        <v>0.1028702197386449</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>38</v>
@@ -3507,19 +3507,19 @@
         <v>40608</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30313</v>
+        <v>29511</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>56223</v>
+        <v>55785</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.07496899034121433</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05596325722305768</v>
+        <v>0.05448168421511148</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1037975508179961</v>
+        <v>0.102988069199408</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>19326</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12078</v>
+        <v>12509</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>28588</v>
+        <v>28092</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.09247545710204841</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05779320616571952</v>
+        <v>0.05985309075324521</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.136794929607679</v>
+        <v>0.1344195391592549</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>25</v>
@@ -3557,19 +3557,19 @@
         <v>29025</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>19736</v>
+        <v>19370</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>42693</v>
+        <v>40920</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08724716409886833</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05932380437235613</v>
+        <v>0.0582241305889847</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1283318025006912</v>
+        <v>0.1230016163945851</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>46</v>
@@ -3578,19 +3578,19 @@
         <v>48351</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>35226</v>
+        <v>35051</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>64351</v>
+        <v>61926</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0892643659511958</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06503240689187383</v>
+        <v>0.06470903960016906</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1188019911464134</v>
+        <v>0.1143254357685093</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>145394</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>132101</v>
+        <v>131321</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>158242</v>
+        <v>157470</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6957100199159867</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6321026012766645</v>
+        <v>0.6283704776664828</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.757186343295422</v>
+        <v>0.753493399792138</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>174</v>
@@ -3628,19 +3628,19 @@
         <v>200647</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>182511</v>
+        <v>181538</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>220119</v>
+        <v>218685</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.603127567272415</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5486133158268457</v>
+        <v>0.5456897252736266</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6616604427803346</v>
+        <v>0.6573499949548391</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>327</v>
@@ -3649,19 +3649,19 @@
         <v>346041</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>320060</v>
+        <v>323306</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>366153</v>
+        <v>370025</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6388481159968338</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5908831182226782</v>
+        <v>0.5968761971439621</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.675978858540241</v>
+        <v>0.6831259259455693</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>441252</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>402063</v>
+        <v>402969</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>482514</v>
+        <v>483019</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1347854298757404</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.122814537624017</v>
+        <v>0.1230914941697657</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1473892385312791</v>
+        <v>0.1475434802217786</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>904</v>
@@ -3774,19 +3774,19 @@
         <v>933376</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>880909</v>
+        <v>879813</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>986839</v>
+        <v>987025</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2765689859375337</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2610224615783016</v>
+        <v>0.2606979348696017</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.292410665866998</v>
+        <v>0.2924660232790543</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1327</v>
@@ -3795,19 +3795,19 @@
         <v>1374628</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1306325</v>
+        <v>1308030</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1442926</v>
+        <v>1448759</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2067551954208427</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1964819053778004</v>
+        <v>0.1967383398652488</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2170277895763091</v>
+        <v>0.2179050327323319</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>428155</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>388365</v>
+        <v>392929</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>465421</v>
+        <v>473342</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1307846747666707</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1186305430351367</v>
+        <v>0.1200246417816211</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1421678774914401</v>
+        <v>0.1445875306285639</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>674</v>
@@ -3845,19 +3845,19 @@
         <v>687351</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>638155</v>
+        <v>642656</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>737060</v>
+        <v>732417</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2036693432261636</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1890919737492117</v>
+        <v>0.1904255900345286</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2183987452696293</v>
+        <v>0.2170228604967857</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1095</v>
@@ -3866,19 +3866,19 @@
         <v>1115506</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1047595</v>
+        <v>1053573</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1178243</v>
+        <v>1175058</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1677811547997719</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1575667278495327</v>
+        <v>0.1584658785339285</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1772172790329828</v>
+        <v>0.1767383026726114</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>764129</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>715858</v>
+        <v>714527</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>814644</v>
+        <v>808809</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2334116447628209</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2186666565416305</v>
+        <v>0.2182603419101291</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2488420177591909</v>
+        <v>0.2470596169708326</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>714</v>
@@ -3916,19 +3916,19 @@
         <v>726375</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>675924</v>
+        <v>680868</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>774383</v>
+        <v>776029</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2152325330505266</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2002832713690728</v>
+        <v>0.2017484883838951</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2294578568137084</v>
+        <v>0.2299456591309964</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1471</v>
@@ -3937,19 +3937,19 @@
         <v>1490504</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1421192</v>
+        <v>1423354</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1553858</v>
+        <v>1556709</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.224183872205178</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2137588507175562</v>
+        <v>0.2140839292018948</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2337127823763131</v>
+        <v>0.2341416651769977</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>477602</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>438872</v>
+        <v>436029</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>518640</v>
+        <v>523408</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1458889779268993</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1340582528161397</v>
+        <v>0.1331900325943065</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1584244939704954</v>
+        <v>0.1598809292820162</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>264</v>
@@ -3987,19 +3987,19 @@
         <v>271097</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>239293</v>
+        <v>241002</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>302661</v>
+        <v>304177</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08032888400982449</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.0709049555837917</v>
+        <v>0.07141150488464701</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.08968167854655568</v>
+        <v>0.09013085409592826</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>728</v>
@@ -4008,19 +4008,19 @@
         <v>748700</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>701033</v>
+        <v>695322</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>805085</v>
+        <v>799209</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1126104742739766</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1054410017286983</v>
+        <v>0.1045821372951423</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.12109133560865</v>
+        <v>0.1202074876852713</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>1162601</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1104631</v>
+        <v>1105699</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1216065</v>
+        <v>1218859</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3551292726678688</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3374217437492606</v>
+        <v>0.3377481501460398</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3714606004828344</v>
+        <v>0.3723139638136153</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>737</v>
@@ -4058,19 +4058,19 @@
         <v>756640</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>708823</v>
+        <v>712294</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>803272</v>
+        <v>807749</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2242002537759516</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2100317034201133</v>
+        <v>0.2110602321838844</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2380179994286388</v>
+        <v>0.2393446675083711</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1883</v>
@@ -4079,19 +4079,19 @@
         <v>1919240</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1848554</v>
+        <v>1841215</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1990609</v>
+        <v>1992695</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2886693033002309</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2780374811500056</v>
+        <v>0.2769336691266092</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2994037100927935</v>
+        <v>0.2997175016305417</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>60474</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44783</v>
+        <v>47052</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75327</v>
+        <v>77916</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1334458421552429</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09882072496624139</v>
+        <v>0.1038263979787386</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1662204380075298</v>
+        <v>0.1719342974149002</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -4447,19 +4447,19 @@
         <v>87955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72117</v>
+        <v>73240</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106202</v>
+        <v>106245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2049262002568645</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1680251846211167</v>
+        <v>0.1706413010468079</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2474411327282962</v>
+        <v>0.2475399086075425</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -4468,19 +4468,19 @@
         <v>148429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>125433</v>
+        <v>127108</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170041</v>
+        <v>175260</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1682149645210444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1421534891027206</v>
+        <v>0.1440517848203021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1927084017132885</v>
+        <v>0.198622857050432</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>76046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61547</v>
+        <v>61636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>93003</v>
+        <v>92611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1678058717512209</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1358124355144723</v>
+        <v>0.136009045307965</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2052255052850347</v>
+        <v>0.2043598062417928</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -4518,19 +4518,19 @@
         <v>89772</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74164</v>
+        <v>73900</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108099</v>
+        <v>109018</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2091606464978617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1727950423940766</v>
+        <v>0.1721803112401107</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2518608537006465</v>
+        <v>0.2540024327040497</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>162</v>
@@ -4539,19 +4539,19 @@
         <v>165818</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>143441</v>
+        <v>143309</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>189282</v>
+        <v>189779</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1879214568121118</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1625616478820267</v>
+        <v>0.1624130041009226</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2145140806737499</v>
+        <v>0.2150773131052911</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>111155</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93890</v>
+        <v>94351</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130122</v>
+        <v>131478</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2452805571841344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2071832878398756</v>
+        <v>0.2081994185105376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2871344924679907</v>
+        <v>0.290124709824776</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>128</v>
@@ -4589,19 +4589,19 @@
         <v>128797</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>109655</v>
+        <v>111219</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>146887</v>
+        <v>147986</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3000841572127498</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2554848262911706</v>
+        <v>0.2591296982945864</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.342231657303557</v>
+        <v>0.3447931827557721</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>236</v>
@@ -4610,19 +4610,19 @@
         <v>239952</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>213587</v>
+        <v>215333</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>266124</v>
+        <v>268450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2719378533433453</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2420586993398737</v>
+        <v>0.2440376816931768</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3015992031679549</v>
+        <v>0.3042345358672775</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>57986</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44873</v>
+        <v>44536</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73157</v>
+        <v>73739</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1279543557225132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09901955696364401</v>
+        <v>0.0982758440084615</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1614314864484179</v>
+        <v>0.1627169702747222</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -4660,19 +4660,19 @@
         <v>33882</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23684</v>
+        <v>23841</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46337</v>
+        <v>46654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0789426392618853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05518035610264561</v>
+        <v>0.05554723403933222</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1079612157237159</v>
+        <v>0.1087003873730105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -4681,19 +4681,19 @@
         <v>91868</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75620</v>
+        <v>74969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110901</v>
+        <v>109592</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1041143189314988</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08570009393644422</v>
+        <v>0.08496249426353317</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1256845455042697</v>
+        <v>0.1242011771062829</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>147515</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128870</v>
+        <v>129579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>169518</v>
+        <v>169901</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3255133731868887</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2843702052576534</v>
+        <v>0.2859345904196985</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3740664215683493</v>
+        <v>0.3749119046332728</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>87</v>
@@ -4731,19 +4731,19 @@
         <v>88796</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73063</v>
+        <v>72720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107451</v>
+        <v>107031</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2068863567706387</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.170228764878598</v>
+        <v>0.1694303050829754</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2503514202524715</v>
+        <v>0.249372914814767</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>233</v>
@@ -4752,19 +4752,19 @@
         <v>236311</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>210969</v>
+        <v>210457</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>262478</v>
+        <v>259860</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2678114063919997</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2390913175880367</v>
+        <v>0.2385117417562791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2974665629177985</v>
+        <v>0.294500238779654</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>88321</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71567</v>
+        <v>72161</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106902</v>
+        <v>107885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.128737007628137</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1043166401100847</v>
+        <v>0.1051821990213112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1558205050447687</v>
+        <v>0.1572543031186164</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -4877,19 +4877,19 @@
         <v>166121</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>146109</v>
+        <v>143274</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>190665</v>
+        <v>188946</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2722151764602544</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2394222672910089</v>
+        <v>0.2347771809792266</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3124350653887691</v>
+        <v>0.30961859368955</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>239</v>
@@ -4898,19 +4898,19 @@
         <v>254442</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>226051</v>
+        <v>223083</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>283738</v>
+        <v>284022</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.19628113976987</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1743803271557374</v>
+        <v>0.1720905656163184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2188804982386332</v>
+        <v>0.2191001403794793</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>99429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81502</v>
+        <v>80926</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119839</v>
+        <v>118810</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.144928908135223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1187970421809338</v>
+        <v>0.1179583848244554</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1746774630213526</v>
+        <v>0.1731774671942206</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -4948,19 +4948,19 @@
         <v>133941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112469</v>
+        <v>113685</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155820</v>
+        <v>154635</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2194841011311423</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1842980658389065</v>
+        <v>0.1862905631907033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2553351687849622</v>
+        <v>0.2533935101353342</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>220</v>
@@ -4969,19 +4969,19 @@
         <v>233371</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>206847</v>
+        <v>206446</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>261994</v>
+        <v>266003</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1800266923386239</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.159565567864793</v>
+        <v>0.1592566595064578</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.202107406319411</v>
+        <v>0.2051996705198987</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>185265</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>162387</v>
+        <v>160687</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>208506</v>
+        <v>206770</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2700425957588774</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2366964157233263</v>
+        <v>0.2342174906629437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3039197149013397</v>
+        <v>0.3013896177618673</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>138</v>
@@ -5019,19 +5019,19 @@
         <v>148103</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>125231</v>
+        <v>126475</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>170541</v>
+        <v>170240</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2426903633427545</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2052107252681978</v>
+        <v>0.2072498133839488</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2794582925244072</v>
+        <v>0.2789653965666593</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>320</v>
@@ -5040,19 +5040,19 @@
         <v>333368</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>302454</v>
+        <v>300042</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>366821</v>
+        <v>364446</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2571661922215021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2333184402808286</v>
+        <v>0.2314580118746201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2829727934625864</v>
+        <v>0.2811401056882837</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>80795</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65063</v>
+        <v>65270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97797</v>
+        <v>99856</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1177669829904944</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09483625019503067</v>
+        <v>0.09513768067529935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1425486717718447</v>
+        <v>0.145550562862395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -5090,19 +5090,19 @@
         <v>56203</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42711</v>
+        <v>42974</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73269</v>
+        <v>72133</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0920981377540262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06998885781617097</v>
+        <v>0.07042016854637916</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1200623960553792</v>
+        <v>0.1182020523569102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -5111,19 +5111,19 @@
         <v>136998</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115401</v>
+        <v>116765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>161853</v>
+        <v>162918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1056830549010136</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08902281050720359</v>
+        <v>0.09007431465848681</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1248562994110012</v>
+        <v>0.1256781710819637</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>232247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>206140</v>
+        <v>209064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>257247</v>
+        <v>258775</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3385245054872681</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3004708284104912</v>
+        <v>0.3047321445182772</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3749645677755818</v>
+        <v>0.3771913403456912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -5161,19 +5161,19 @@
         <v>105887</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87435</v>
+        <v>87691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125560</v>
+        <v>124432</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1735122213118226</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1432768884990543</v>
+        <v>0.1436955377616968</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2057505237350929</v>
+        <v>0.2039010096454408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>328</v>
@@ -5182,19 +5182,19 @@
         <v>338134</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>306985</v>
+        <v>306351</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>368407</v>
+        <v>370919</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2608429207689904</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2368142913551514</v>
+        <v>0.2363245706316882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2841959513371332</v>
+        <v>0.2861338878214678</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>74491</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>59146</v>
+        <v>59226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90671</v>
+        <v>92619</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1095328042689105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08697007805033974</v>
+        <v>0.08708767075902896</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1333237909789469</v>
+        <v>0.1361881761595639</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -5307,19 +5307,19 @@
         <v>193975</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>170497</v>
+        <v>170835</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219842</v>
+        <v>219295</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.273691568245929</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2405646265043675</v>
+        <v>0.2410412653502498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3101885613882888</v>
+        <v>0.3094161742330922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>250</v>
@@ -5328,19 +5328,19 @@
         <v>268466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>237530</v>
+        <v>236217</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>300423</v>
+        <v>299274</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1933059319471511</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1710308208285582</v>
+        <v>0.1700850756350932</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2163158772686817</v>
+        <v>0.2154889878462631</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>90733</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73470</v>
+        <v>72182</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111487</v>
+        <v>111380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1334155083880309</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1080312054779713</v>
+        <v>0.1061381085230563</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1639328709865761</v>
+        <v>0.1637747073596026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>139</v>
@@ -5378,19 +5378,19 @@
         <v>144632</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125480</v>
+        <v>122676</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168864</v>
+        <v>167282</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2040700923038631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1770470419173648</v>
+        <v>0.1730909872237808</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2382606391112586</v>
+        <v>0.236028423293664</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>221</v>
@@ -5399,19 +5399,19 @@
         <v>235365</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>209824</v>
+        <v>205479</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>265688</v>
+        <v>264146</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1694717952169364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1510816722975053</v>
+        <v>0.1479528335553352</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1913055888390687</v>
+        <v>0.1901955355173821</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>167782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>147735</v>
+        <v>144375</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>193575</v>
+        <v>190407</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2467096944982771</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2172329857771419</v>
+        <v>0.2122911217475385</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2846362048996416</v>
+        <v>0.2799780786564092</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>167</v>
@@ -5449,19 +5449,19 @@
         <v>174531</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>152429</v>
+        <v>152373</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>199431</v>
+        <v>201789</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2462570008438484</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2150718591899535</v>
+        <v>0.2149924893821736</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.281389863005631</v>
+        <v>0.2847160817077328</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>333</v>
@@ -5470,19 +5470,19 @@
         <v>342313</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>310653</v>
+        <v>313763</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>376694</v>
+        <v>377508</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2464786769004784</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2236824095143643</v>
+        <v>0.2259216883904769</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2712339857264566</v>
+        <v>0.271820475998663</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>82506</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65350</v>
+        <v>65701</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100017</v>
+        <v>103009</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1213178534224669</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09609145653396416</v>
+        <v>0.0966077306086687</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1470674095549526</v>
+        <v>0.151466921017183</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -5520,19 +5520,19 @@
         <v>56241</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42862</v>
+        <v>42587</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73728</v>
+        <v>72803</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07935374552095632</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06047667399124059</v>
+        <v>0.0600879060767507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1040268224753048</v>
+        <v>0.1027219265745316</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>127</v>
@@ -5541,19 +5541,19 @@
         <v>138747</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>117383</v>
+        <v>116420</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>163547</v>
+        <v>161831</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09990282516586491</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08452022364440641</v>
+        <v>0.08382660871702723</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1177598639654708</v>
+        <v>0.1165246448466017</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>264567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>238599</v>
+        <v>237478</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289564</v>
+        <v>288731</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3890241394223146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3508404459994472</v>
+        <v>0.3491923953003126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4257809221143616</v>
+        <v>0.4245563921809837</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -5591,19 +5591,19 @@
         <v>139357</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>119276</v>
+        <v>118487</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163716</v>
+        <v>163771</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1966275930854032</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1682930479697918</v>
+        <v>0.1671809098890634</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2309962226828798</v>
+        <v>0.2310743363278769</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>383</v>
@@ -5612,19 +5612,19 @@
         <v>403924</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>366637</v>
+        <v>366508</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>439626</v>
+        <v>437331</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2908407707695693</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2639928826441447</v>
+        <v>0.2638997342782625</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3165473454239937</v>
+        <v>0.3148953144308421</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>66209</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52460</v>
+        <v>51558</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84974</v>
+        <v>84594</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.107723598201463</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08535448598261854</v>
+        <v>0.08388685870997313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1382557882020924</v>
+        <v>0.1376374822442102</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -5737,19 +5737,19 @@
         <v>153146</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132141</v>
+        <v>129443</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>177248</v>
+        <v>174279</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2489975318644201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2148464036718181</v>
+        <v>0.2104598192118388</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2881851031470611</v>
+        <v>0.2833576274896555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>194</v>
@@ -5758,19 +5758,19 @@
         <v>219354</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>192943</v>
+        <v>192293</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>245496</v>
+        <v>249559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1783854180629254</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1569070959648205</v>
+        <v>0.1563779599643609</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1996444351778743</v>
+        <v>0.2029484803508027</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>61598</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>46836</v>
+        <v>46985</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>78869</v>
+        <v>80822</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1002209966158697</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07620373678266809</v>
+        <v>0.07644648921188671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1283217438798953</v>
+        <v>0.131498984146649</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>95</v>
@@ -5808,19 +5808,19 @@
         <v>112938</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>93655</v>
+        <v>90648</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>136954</v>
+        <v>134662</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1836240886528366</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1522730930870353</v>
+        <v>0.147383481955889</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2226712336361429</v>
+        <v>0.2189450302424658</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>149</v>
@@ -5829,19 +5829,19 @@
         <v>174535</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>151059</v>
+        <v>148898</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>204764</v>
+        <v>201825</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1419372149768964</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1228452834896142</v>
+        <v>0.121087885378785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.166519969704072</v>
+        <v>0.1641299605018246</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>147853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>126407</v>
+        <v>126525</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>169496</v>
+        <v>170800</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2405607128208576</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2056686268883687</v>
+        <v>0.2058598230070284</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2757757047899947</v>
+        <v>0.2778972857363132</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>124</v>
@@ -5879,19 +5879,19 @@
         <v>139341</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>118323</v>
+        <v>117195</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>161528</v>
+        <v>164462</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2265528552883932</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1923790215682405</v>
+        <v>0.1905465006910445</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2626268087120033</v>
+        <v>0.2673967192956208</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>258</v>
@@ -5900,19 +5900,19 @@
         <v>287194</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>256178</v>
+        <v>254820</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>319404</v>
+        <v>318893</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2335543197804721</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2083312495944001</v>
+        <v>0.2072272886183961</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2597486255953944</v>
+        <v>0.2593327080496518</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>85650</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68612</v>
+        <v>69015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105626</v>
+        <v>105145</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1393552775829111</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1116342509908731</v>
+        <v>0.1122894430711884</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1718563598075858</v>
+        <v>0.1710732784044112</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -5950,19 +5950,19 @@
         <v>49600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36932</v>
+        <v>36687</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>66326</v>
+        <v>66801</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08064318636806289</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06004764955364641</v>
+        <v>0.05964810568896637</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1078393146286503</v>
+        <v>0.1086101103587123</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>122</v>
@@ -5971,19 +5971,19 @@
         <v>135250</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>113297</v>
+        <v>112813</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159879</v>
+        <v>159472</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1099889032947068</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09213617448954682</v>
+        <v>0.09174295254081499</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1300185893712054</v>
+        <v>0.1296871609834799</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>253308</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>226894</v>
+        <v>227545</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>280266</v>
+        <v>278449</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4121394147788985</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3691625793377808</v>
+        <v>0.3702226954929452</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.45600145081229</v>
+        <v>0.4530453395853004</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>139</v>
@@ -6021,19 +6021,19 @@
         <v>160025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>138595</v>
+        <v>137157</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>183932</v>
+        <v>183843</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2601823378262872</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2253392594143101</v>
+        <v>0.2230011756295125</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2990527152602326</v>
+        <v>0.298908237635208</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>363</v>
@@ -6042,19 +6042,19 @@
         <v>413333</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>378331</v>
+        <v>376179</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>449394</v>
+        <v>448201</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3361341438849993</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3076699124099708</v>
+        <v>0.3059196883933545</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3654601175846894</v>
+        <v>0.3644902766812055</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>40307</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27506</v>
+        <v>29851</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53774</v>
+        <v>53512</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09386117725521036</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06405363665301453</v>
+        <v>0.06951238759717483</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1252215053863023</v>
+        <v>0.1246113472524171</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>81</v>
@@ -6167,19 +6167,19 @@
         <v>90587</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>74093</v>
+        <v>74981</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109972</v>
+        <v>110897</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2032405757021959</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1662350486905627</v>
+        <v>0.1682268454915245</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2467326727221796</v>
+        <v>0.2488083004412209</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>119</v>
@@ -6188,19 +6188,19 @@
         <v>130894</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>110204</v>
+        <v>108785</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>153838</v>
+        <v>152261</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1495684916238659</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1259267213024349</v>
+        <v>0.1243050005045757</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.175785988079389</v>
+        <v>0.1739841900264696</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>26902</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17593</v>
+        <v>18391</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>39515</v>
+        <v>39047</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06264630413575856</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04096831088275974</v>
+        <v>0.04282766325492457</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09201822320203211</v>
+        <v>0.09092857259063114</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -6238,19 +6238,19 @@
         <v>64749</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50788</v>
+        <v>50303</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81826</v>
+        <v>80689</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1452714648654025</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1139480290706876</v>
+        <v>0.1128599608291325</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1835840755951136</v>
+        <v>0.1810343452580133</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>84</v>
@@ -6259,19 +6259,19 @@
         <v>91652</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>73324</v>
+        <v>73667</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>111182</v>
+        <v>111913</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1047275906383341</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08378528771866728</v>
+        <v>0.08417769186756074</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1270442785423178</v>
+        <v>0.1278799573291432</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>86212</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>70163</v>
+        <v>70423</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105541</v>
+        <v>106340</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2007604955172423</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1633865763252817</v>
+        <v>0.1639914792111605</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2457710282476745</v>
+        <v>0.2476307392090973</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>107</v>
@@ -6309,19 +6309,19 @@
         <v>118966</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>101568</v>
+        <v>99253</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>140015</v>
+        <v>139584</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2669113108968642</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2278768431716688</v>
+        <v>0.2226828260710489</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3141372873546932</v>
+        <v>0.3131703214867844</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>184</v>
@@ -6330,19 +6330,19 @@
         <v>205178</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>178966</v>
+        <v>180488</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>231293</v>
+        <v>234275</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2344513396836745</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.204499590463583</v>
+        <v>0.2062384224152567</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.264292257046311</v>
+        <v>0.2676995195723071</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>58424</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>44417</v>
+        <v>44670</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>73509</v>
+        <v>75164</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.136049666918482</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1034337421291501</v>
+        <v>0.104022629122951</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1711775953797488</v>
+        <v>0.1750324243454844</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>39</v>
@@ -6380,19 +6380,19 @@
         <v>43179</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>31114</v>
+        <v>30621</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>57079</v>
+        <v>56096</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09687524972015783</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06980639034143715</v>
+        <v>0.06870216726897788</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1280627950157001</v>
+        <v>0.1258575929823032</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>94</v>
@@ -6401,19 +6401,19 @@
         <v>101602</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>83062</v>
+        <v>83224</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>122262</v>
+        <v>120645</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1160979977279293</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09491262759962588</v>
+        <v>0.09509794148168335</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.139705131259672</v>
+        <v>0.1378574453945495</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>217584</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>197278</v>
+        <v>196627</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>239826</v>
+        <v>237491</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5066823561733068</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4593970722124591</v>
+        <v>0.4578806208340701</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5584761908395692</v>
+        <v>0.5530379067169932</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>117</v>
@@ -6451,19 +6451,19 @@
         <v>128232</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>110500</v>
+        <v>107824</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>148095</v>
+        <v>149492</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2877013988153798</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2479171085845328</v>
+        <v>0.2419140635716027</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3322652927256208</v>
+        <v>0.3353988424770292</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>316</v>
@@ -6472,19 +6472,19 @@
         <v>345816</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>315166</v>
+        <v>313650</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>376338</v>
+        <v>377568</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3951545803261963</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3601308376840696</v>
+        <v>0.3583990053275364</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4300303292312826</v>
+        <v>0.4314365073018818</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>24789</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16709</v>
+        <v>16601</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36482</v>
+        <v>36069</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08001841123842121</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0539372728962001</v>
+        <v>0.05359012150254752</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1177643145205108</v>
+        <v>0.1164310459790906</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>52</v>
@@ -6597,19 +6597,19 @@
         <v>53992</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>41400</v>
+        <v>41603</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>68846</v>
+        <v>69970</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1525205464123938</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1169493550915227</v>
+        <v>0.1175236424981838</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1944829885250457</v>
+        <v>0.197656228324727</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>75</v>
@@ -6618,19 +6618,19 @@
         <v>78780</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>63341</v>
+        <v>62596</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>98490</v>
+        <v>96107</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1186839050212955</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09542429645335927</v>
+        <v>0.09430153223057221</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1483776097380597</v>
+        <v>0.1447870883165144</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>18905</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>11392</v>
+        <v>11291</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29748</v>
+        <v>30469</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06102640627811682</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03677397068962772</v>
+        <v>0.03644740297230128</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09602776379066283</v>
+        <v>0.09835540987766615</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>46</v>
@@ -6668,19 +6668,19 @@
         <v>47848</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>35606</v>
+        <v>35712</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>63135</v>
+        <v>61639</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1351667224197212</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1005838734665454</v>
+        <v>0.1008820564384519</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.178350166797289</v>
+        <v>0.1741237318986006</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>63</v>
@@ -6689,19 +6689,19 @@
         <v>66754</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>52091</v>
+        <v>52075</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>82595</v>
+        <v>84141</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1005655443456346</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07847651288702279</v>
+        <v>0.07845124877959511</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1244303895243481</v>
+        <v>0.1267601308114118</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>45594</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>33826</v>
+        <v>33557</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>62690</v>
+        <v>60812</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1471785776698464</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1091909253884026</v>
+        <v>0.108322762777475</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.202367081645081</v>
+        <v>0.1963020096456847</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>79</v>
@@ -6739,19 +6739,19 @@
         <v>79343</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>64652</v>
+        <v>64111</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>97072</v>
+        <v>95793</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2241353607779572</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1826345157835483</v>
+        <v>0.1811055067200099</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2742183482472372</v>
+        <v>0.2706053702978503</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>118</v>
@@ -6760,19 +6760,19 @@
         <v>124937</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>106065</v>
+        <v>103957</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>146623</v>
+        <v>146632</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1882197416531778</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.159789289404417</v>
+        <v>0.1566126839039682</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2208897945221195</v>
+        <v>0.2209043939483936</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>43769</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>33225</v>
+        <v>31731</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>58308</v>
+        <v>56814</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1412874911536379</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1072517242741263</v>
+        <v>0.1024276802951347</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1882203365439709</v>
+        <v>0.183399106507026</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>26</v>
@@ -6810,19 +6810,19 @@
         <v>26243</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>17033</v>
+        <v>17234</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>37180</v>
+        <v>36689</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.07413308625306086</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04811711750900724</v>
+        <v>0.04868468609467813</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1050296598745773</v>
+        <v>0.1036427108318046</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>67</v>
@@ -6831,19 +6831,19 @@
         <v>70012</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>56280</v>
+        <v>54946</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>87804</v>
+        <v>86756</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1054739496773033</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08478715941337699</v>
+        <v>0.08277737285587246</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1322785988984308</v>
+        <v>0.1306995336758864</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>176730</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>158128</v>
+        <v>158504</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>194683</v>
+        <v>195208</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5704891136599777</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.510442590163989</v>
+        <v>0.5116578711336754</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6284450292945433</v>
+        <v>0.6301374992808367</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>141</v>
@@ -6881,19 +6881,19 @@
         <v>146570</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>127130</v>
+        <v>128086</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>165056</v>
+        <v>165940</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.414044284136867</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3591275587269045</v>
+        <v>0.3618300204784302</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4662638246321181</v>
+        <v>0.4687624660605447</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>303</v>
@@ -6902,19 +6902,19 @@
         <v>323300</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>299357</v>
+        <v>299348</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>349185</v>
+        <v>350383</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4870568593025889</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4509876085841634</v>
+        <v>0.4509726382810939</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5260532655103304</v>
+        <v>0.5278578968606283</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>11442</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6204</v>
+        <v>6120</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20364</v>
+        <v>20752</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0459715982918192</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02492899654586476</v>
+        <v>0.02458935668151747</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08182277549552057</v>
+        <v>0.08338053941756429</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>45</v>
@@ -7027,19 +7027,19 @@
         <v>49701</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>36283</v>
+        <v>37422</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>63874</v>
+        <v>65408</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1288186218859451</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.09403963945951871</v>
+        <v>0.09699257421023268</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1655527092120934</v>
+        <v>0.1695273095738186</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>55</v>
@@ -7048,19 +7048,19 @@
         <v>61143</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>47311</v>
+        <v>47545</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>79270</v>
+        <v>77113</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09633228442080881</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07453879381568072</v>
+        <v>0.07490779391608661</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1248907091791589</v>
+        <v>0.1214925190622453</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>6415</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3079</v>
+        <v>2173</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13577</v>
+        <v>13154</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02577367943072571</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01237231880912356</v>
+        <v>0.008732801877582495</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05455249609944465</v>
+        <v>0.05285079717852077</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>20</v>
@@ -7098,19 +7098,19 @@
         <v>21554</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>13774</v>
+        <v>13866</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>32049</v>
+        <v>33097</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0558645684490937</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03570066263196385</v>
+        <v>0.03593827544392254</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08306712177507999</v>
+        <v>0.08578282217008011</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>26</v>
@@ -7119,19 +7119,19 @@
         <v>27969</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>19368</v>
+        <v>18535</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>40119</v>
+        <v>40403</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04406519735682942</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03051426191397812</v>
+        <v>0.02920296934335476</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06320760441328424</v>
+        <v>0.06365613231433784</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>25898</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16757</v>
+        <v>16494</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>37908</v>
+        <v>37106</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1040548819275057</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.06732911010374519</v>
+        <v>0.06627275663857583</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1523129904763273</v>
+        <v>0.1490873681608529</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>49</v>
@@ -7169,19 +7169,19 @@
         <v>54609</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>40675</v>
+        <v>41527</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>68390</v>
+        <v>71076</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1415376496297298</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1054231129686857</v>
+        <v>0.1076313372802443</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1772576107676536</v>
+        <v>0.1842178978260332</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>72</v>
@@ -7190,19 +7190,19 @@
         <v>80507</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>64531</v>
+        <v>63127</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>102049</v>
+        <v>98111</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1268397427179829</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1016701678682479</v>
+        <v>0.09945758680242221</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1607801607839865</v>
+        <v>0.1545757027585969</v>
       </c>
     </row>
     <row r="43">
@@ -7219,19 +7219,19 @@
         <v>32049</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>21603</v>
+        <v>22581</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>44359</v>
+        <v>45391</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.128771622224782</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08680061710943676</v>
+        <v>0.09072676195831982</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1782312071212811</v>
+        <v>0.18237717680723</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>42</v>
@@ -7240,19 +7240,19 @@
         <v>45563</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>33942</v>
+        <v>33665</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>59002</v>
+        <v>60714</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1180925046885124</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08797250485403939</v>
+        <v>0.08725406918273892</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.152924146389489</v>
+        <v>0.1573619200583953</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>71</v>
@@ -7261,19 +7261,19 @@
         <v>77612</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>61066</v>
+        <v>61139</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>94422</v>
+        <v>95768</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1222800469931427</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.09621015669131847</v>
+        <v>0.09632648941812003</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1487634904782672</v>
+        <v>0.1508848481471602</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>173082</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>156999</v>
+        <v>156899</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>188630</v>
+        <v>188385</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6954282181251674</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6308088676479274</v>
+        <v>0.6304094332482337</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7578995715493013</v>
+        <v>0.7569169450199833</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>192</v>
@@ -7311,19 +7311,19 @@
         <v>214398</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>195001</v>
+        <v>194870</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>235333</v>
+        <v>233775</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5556866553467191</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5054136127514646</v>
+        <v>0.5050732368092395</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6099486930782128</v>
+        <v>0.6059097481348116</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>345</v>
@@ -7332,19 +7332,19 @@
         <v>387480</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>355967</v>
+        <v>362691</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>409563</v>
+        <v>410598</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6104827285112362</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5608337209123103</v>
+        <v>0.5714264941747255</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6452752799811293</v>
+        <v>0.6469049330043339</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>366032</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>331045</v>
+        <v>330330</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>404641</v>
+        <v>403841</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1069634392587665</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.09673935023931789</v>
+        <v>0.0965304974924357</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1182458644694698</v>
+        <v>0.1180120396215132</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>730</v>
@@ -7457,19 +7457,19 @@
         <v>795477</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>740979</v>
+        <v>742347</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>847084</v>
+        <v>848090</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2241551155009284</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2087984381719067</v>
+        <v>0.2091839829254024</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2386975030524528</v>
+        <v>0.2389808004189922</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1075</v>
@@ -7478,19 +7478,19 @@
         <v>1161509</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1095867</v>
+        <v>1100512</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1226153</v>
+        <v>1227779</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1666247121567363</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1572081302276409</v>
+        <v>0.1578743779437875</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1758982418931578</v>
+        <v>0.176131624250541</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>380028</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>341445</v>
+        <v>345948</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>417261</v>
+        <v>415628</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.111053286657116</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0997784249955268</v>
+        <v>0.1010945077404011</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1219338457210753</v>
+        <v>0.1214566097655259</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>573</v>
@@ -7528,19 +7528,19 @@
         <v>615435</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>570467</v>
+        <v>570161</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>659944</v>
+        <v>669557</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1734217364760733</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1607502554516202</v>
+        <v>0.1606640608756418</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1859636482097267</v>
+        <v>0.1886726746564679</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>925</v>
@@ -7549,19 +7549,19 @@
         <v>995463</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>935093</v>
+        <v>937020</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1061267</v>
+        <v>1055740</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1428045272246048</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1341442335635719</v>
+        <v>0.1344205398846972</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1522445617316786</v>
+        <v>0.151451709173389</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>769759</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>723837</v>
+        <v>723149</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>819829</v>
+        <v>822823</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2249421349784166</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2115226176292606</v>
+        <v>0.2113216496582097</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2395738421437818</v>
+        <v>0.2404489961263938</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>792</v>
@@ -7599,19 +7599,19 @@
         <v>843690</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>794993</v>
+        <v>792036</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>895902</v>
+        <v>899102</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2377410221746418</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2240188762569378</v>
+        <v>0.2231857590075615</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.25245380102452</v>
+        <v>0.253355554265549</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1521</v>
@@ -7620,19 +7620,19 @@
         <v>1613448</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1545967</v>
+        <v>1541259</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1696020</v>
+        <v>1690744</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2314579382017312</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2217774315056647</v>
+        <v>0.2211019686006598</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2433032571486944</v>
+        <v>0.2425464633870433</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>441178</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>404014</v>
+        <v>401887</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>483990</v>
+        <v>485335</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1289230569422713</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1180626076852141</v>
+        <v>0.1174410926674065</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1414334968675062</v>
+        <v>0.1418266387165091</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>286</v>
@@ -7670,19 +7670,19 @@
         <v>310911</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>280443</v>
+        <v>279997</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>346355</v>
+        <v>349185</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.08761062134728628</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.07902526045868757</v>
+        <v>0.07889943565734035</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.09759837659257814</v>
+        <v>0.09839588217009572</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>702</v>
@@ -7691,19 +7691,19 @@
         <v>752089</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>703403</v>
+        <v>700818</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>805981</v>
+        <v>807387</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1078912518418894</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1009070542500573</v>
+        <v>0.1005361453605856</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.115622345852602</v>
+        <v>0.1158241136867936</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>1465032</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1405132</v>
+        <v>1400840</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1527619</v>
+        <v>1521171</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4281180821634296</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4106136903532633</v>
+        <v>0.4093595943627031</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4464073429255962</v>
+        <v>0.4445229870550882</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>909</v>
@@ -7741,19 +7741,19 @@
         <v>983265</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>928195</v>
+        <v>930035</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1038736</v>
+        <v>1038636</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2770715045010703</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2615534632060987</v>
+        <v>0.2620719891936847</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2927024684988713</v>
+        <v>0.2926742787115554</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2271</v>
@@ -7762,19 +7762,19 @@
         <v>2448297</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2356006</v>
+        <v>2362940</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2532570</v>
+        <v>2533843</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3512215705750383</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3379818640784998</v>
+        <v>0.3389765221952737</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3633109203976116</v>
+        <v>0.3634935084380584</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>43069</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31996</v>
+        <v>31634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55638</v>
+        <v>57236</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1037121664062871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07704794378464251</v>
+        <v>0.07617646587354457</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1339806797201575</v>
+        <v>0.1378276752318405</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>64</v>
@@ -8130,19 +8130,19 @@
         <v>63774</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50540</v>
+        <v>50223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78530</v>
+        <v>78063</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1611447269276998</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1277057777242881</v>
+        <v>0.1269032418447897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1984308838089001</v>
+        <v>0.1972509636521741</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -8151,19 +8151,19 @@
         <v>106842</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88828</v>
+        <v>88589</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127386</v>
+        <v>126980</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1317374450269795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1095260538227123</v>
+        <v>0.1092304842208353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1570672511999316</v>
+        <v>0.1565668619799616</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>130096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113757</v>
+        <v>110742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150984</v>
+        <v>149722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3132794093773946</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2739342665412567</v>
+        <v>0.2666750011744303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3635806446375003</v>
+        <v>0.3605394717359811</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -8201,19 +8201,19 @@
         <v>148852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>129606</v>
+        <v>130338</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>168293</v>
+        <v>165821</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3761222954517734</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3274912959353758</v>
+        <v>0.3293393434765903</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4252461084851082</v>
+        <v>0.419000065298841</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>273</v>
@@ -8222,19 +8222,19 @@
         <v>278948</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>252969</v>
+        <v>250382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>305018</v>
+        <v>305332</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.343944756274235</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3119126810226352</v>
+        <v>0.3087229056021449</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3760891473881821</v>
+        <v>0.3764761379833021</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>112336</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94985</v>
+        <v>95258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>130922</v>
+        <v>130711</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.270513486013655</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2287290603748278</v>
+        <v>0.2293867746159376</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3152683148964686</v>
+        <v>0.3147598166491841</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>97</v>
@@ -8272,19 +8272,19 @@
         <v>94726</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>79349</v>
+        <v>78714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>112314</v>
+        <v>112542</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2393560387099881</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2004993684033527</v>
+        <v>0.1988959403874546</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2837980211393071</v>
+        <v>0.2843736008081395</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>205</v>
@@ -8293,19 +8293,19 @@
         <v>207063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>185059</v>
+        <v>182897</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>234982</v>
+        <v>235492</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.255309634159109</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2281783325472421</v>
+        <v>0.2255130613387315</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.289734163324011</v>
+        <v>0.2903626839206501</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>21749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13598</v>
+        <v>13534</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32902</v>
+        <v>33921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05237244478940781</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03274487993967289</v>
+        <v>0.03258995852229201</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07922900792195924</v>
+        <v>0.08168379569036616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -8343,19 +8343,19 @@
         <v>22020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14293</v>
+        <v>14042</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31913</v>
+        <v>31616</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05564131641062714</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03611455370770867</v>
+        <v>0.03548201030178728</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08063799738778181</v>
+        <v>0.07988895184203763</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -8364,19 +8364,19 @@
         <v>43769</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32411</v>
+        <v>32136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57551</v>
+        <v>58208</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.053967551069334</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03996300858168116</v>
+        <v>0.03962346392723468</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07096054819579875</v>
+        <v>0.07177120573045112</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>108021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90258</v>
+        <v>90794</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>126805</v>
+        <v>126370</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2601224934132554</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2173477867246033</v>
+        <v>0.2186371660766218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3053550331740199</v>
+        <v>0.3043080798121262</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -8414,19 +8414,19 @@
         <v>66382</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50797</v>
+        <v>52955</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80709</v>
+        <v>80809</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1677356224999115</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1283552180900636</v>
+        <v>0.133808287805676</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2039371811408393</v>
+        <v>0.2041887826242196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>169</v>
@@ -8435,19 +8435,19 @@
         <v>174404</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>153219</v>
+        <v>153045</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>199354</v>
+        <v>198487</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2150406134703425</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1889204823816966</v>
+        <v>0.1887049298946546</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2458052109756797</v>
+        <v>0.2447356003244829</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>71479</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56036</v>
+        <v>56872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>90874</v>
+        <v>87976</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1214902272537741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0952425054834289</v>
+        <v>0.09666307564859201</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1544545507825141</v>
+        <v>0.1495291495033763</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>128</v>
@@ -8560,19 +8560,19 @@
         <v>126157</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>106855</v>
+        <v>108108</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>145393</v>
+        <v>146923</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2238634049093613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1896124343369283</v>
+        <v>0.1918364635921055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2579981002473101</v>
+        <v>0.2607119689862405</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -8581,19 +8581,19 @@
         <v>197636</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>171556</v>
+        <v>171956</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>222968</v>
+        <v>222985</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1715743936423597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1489335975581772</v>
+        <v>0.1492812100523492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1935662071830845</v>
+        <v>0.1935805863519061</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>172679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>151795</v>
+        <v>148174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196411</v>
+        <v>194008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2934959297411895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2579999713425237</v>
+        <v>0.251845936872548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3338311824280633</v>
+        <v>0.3297469235269003</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>203</v>
@@ -8631,19 +8631,19 @@
         <v>195308</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>171410</v>
+        <v>169831</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>215885</v>
+        <v>216362</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3465715796148018</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3041636033737492</v>
+        <v>0.3013625430952996</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3830853941524594</v>
+        <v>0.3839308644169829</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>371</v>
@@ -8652,19 +8652,19 @@
         <v>367987</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>337583</v>
+        <v>337714</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>395773</v>
+        <v>403114</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.319462200793119</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2930674348771167</v>
+        <v>0.2931808980868794</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3435841659461116</v>
+        <v>0.349957124522307</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>137132</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>116553</v>
+        <v>117357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157980</v>
+        <v>158917</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2330771744351172</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1981003046471595</v>
+        <v>0.1994662779115841</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2685119390992421</v>
+        <v>0.2701055359708096</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>125</v>
@@ -8702,19 +8702,19 @@
         <v>120489</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>102627</v>
+        <v>102676</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>141295</v>
+        <v>140303</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2138059522866906</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1821108301551388</v>
+        <v>0.1821976948880029</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2507265213625591</v>
+        <v>0.2489662264879156</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>256</v>
@@ -8723,19 +8723,19 @@
         <v>257620</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>231389</v>
+        <v>231588</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>285835</v>
+        <v>285081</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2236490886933583</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.200876599913701</v>
+        <v>0.2010492316405917</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2481432975889498</v>
+        <v>0.2474884837956</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>53383</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40353</v>
+        <v>39807</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68306</v>
+        <v>67664</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09073303189357171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06858654423846718</v>
+        <v>0.06765840132529807</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1160976745135881</v>
+        <v>0.1150051347469023</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -8773,19 +8773,19 @@
         <v>19857</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12351</v>
+        <v>13176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29478</v>
+        <v>29272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03523507649342843</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02191728972948147</v>
+        <v>0.0233805449390845</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05230908853089931</v>
+        <v>0.05194279851371086</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -8794,19 +8794,19 @@
         <v>73239</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58351</v>
+        <v>57876</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>90924</v>
+        <v>92260</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06358169307474214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05065674401604443</v>
+        <v>0.0502439466235717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07893458541138249</v>
+        <v>0.08009436269755943</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>153680</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>133269</v>
+        <v>133616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>175244</v>
+        <v>175542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2612036366763474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2265115074733584</v>
+        <v>0.2271017665356775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2978552552055882</v>
+        <v>0.2983620844525635</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>102</v>
@@ -8844,19 +8844,19 @@
         <v>101733</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84996</v>
+        <v>84733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>121476</v>
+        <v>118058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.180523986695718</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1508233244181314</v>
+        <v>0.1503566149348063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.215557225642939</v>
+        <v>0.2094927690073842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>249</v>
@@ -8865,19 +8865,19 @@
         <v>255413</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>227794</v>
+        <v>228001</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>283119</v>
+        <v>286354</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2217326237964208</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1977556550791348</v>
+        <v>0.1979353643157208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2457850546804797</v>
+        <v>0.2485936537739474</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>97458</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79784</v>
+        <v>79467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117984</v>
+        <v>119312</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1465354939166238</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1199610302303876</v>
+        <v>0.1194844044097145</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1773978144057302</v>
+        <v>0.1793945379297252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -8990,19 +8990,19 @@
         <v>141599</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>119900</v>
+        <v>122884</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>164768</v>
+        <v>164007</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2148984017695685</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1819670606533345</v>
+        <v>0.1864955358352097</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2500606677835178</v>
+        <v>0.2489050518316066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>227</v>
@@ -9011,19 +9011,19 @@
         <v>239057</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209966</v>
+        <v>208445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>268566</v>
+        <v>266531</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1805577136784133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1585857358003983</v>
+        <v>0.1574363958292916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2028455069789678</v>
+        <v>0.2013087031212927</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>172196</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151718</v>
+        <v>149780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196959</v>
+        <v>196418</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2589102226372538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2281197121351526</v>
+        <v>0.2252063588448992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2961433487400764</v>
+        <v>0.2953298888971668</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>229</v>
@@ -9061,19 +9061,19 @@
         <v>224817</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200174</v>
+        <v>201490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249720</v>
+        <v>248961</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3411940104975762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3037950044616853</v>
+        <v>0.3057917588493473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.378988551797215</v>
+        <v>0.3778360069731316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>395</v>
@@ -9082,19 +9082,19 @@
         <v>397013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>365014</v>
+        <v>365002</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>431033</v>
+        <v>432149</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2998604572211645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2756917183058775</v>
+        <v>0.2756828238993817</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3255554449988469</v>
+        <v>0.326398056266097</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>167293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>143896</v>
+        <v>144495</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>188730</v>
+        <v>190697</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2515383891435661</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2163584313592583</v>
+        <v>0.2172592499658499</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2837709738752661</v>
+        <v>0.2867272023729739</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>145</v>
@@ -9132,19 +9132,19 @@
         <v>144018</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>124820</v>
+        <v>123420</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>163010</v>
+        <v>168515</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2185696828450786</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1894337984892056</v>
+        <v>0.1873079232128961</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2473929264308628</v>
+        <v>0.2557476953749572</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>307</v>
@@ -9153,19 +9153,19 @@
         <v>311312</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>278672</v>
+        <v>282465</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>342515</v>
+        <v>341178</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2351308282867071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2104781364695855</v>
+        <v>0.2133435890638582</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2586988033270662</v>
+        <v>0.257688317913192</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>53530</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>40365</v>
+        <v>40769</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68239</v>
+        <v>69470</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.080486765709896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06069221044065501</v>
+        <v>0.06129884911649972</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1026033286364422</v>
+        <v>0.104453243549117</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -9203,19 +9203,19 @@
         <v>28554</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20082</v>
+        <v>19372</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39572</v>
+        <v>39856</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04333541592897426</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03047811439530938</v>
+        <v>0.02940043346440636</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06005646054798003</v>
+        <v>0.06048692042415428</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>81</v>
@@ -9224,19 +9224,19 @@
         <v>82084</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64572</v>
+        <v>64807</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99517</v>
+        <v>99804</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06199762552568155</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04877056816392734</v>
+        <v>0.04894843666543839</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07516448281646422</v>
+        <v>0.07538088115593751</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>174603</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>150349</v>
+        <v>151419</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>197412</v>
+        <v>199186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2625291285926602</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2260610009670665</v>
+        <v>0.2276699895090522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2968238013977958</v>
+        <v>0.2994923189293426</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -9274,19 +9274,19 @@
         <v>119924</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>99620</v>
+        <v>101758</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>139124</v>
+        <v>139534</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1820024889588024</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1511886879863186</v>
+        <v>0.1544329508242458</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2111417252771365</v>
+        <v>0.2117635357568099</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>287</v>
@@ -9295,19 +9295,19 @@
         <v>294527</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>266690</v>
+        <v>266473</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>328472</v>
+        <v>326712</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2224533752880335</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2014284451403785</v>
+        <v>0.2012648835087969</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2480915979901442</v>
+        <v>0.2467626140166098</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>70158</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53952</v>
+        <v>54578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87676</v>
+        <v>88165</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1085961267916679</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08351066717933389</v>
+        <v>0.08447917976646566</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1357113611444777</v>
+        <v>0.136468502666222</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>120</v>
@@ -9420,19 +9420,19 @@
         <v>135415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>115233</v>
+        <v>114297</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>157001</v>
+        <v>158449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.209317413389885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1781200074028067</v>
+        <v>0.176674252934645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2426834881835254</v>
+        <v>0.2449207688478896</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>182</v>
@@ -9441,19 +9441,19 @@
         <v>205574</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178855</v>
+        <v>178761</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>232553</v>
+        <v>233496</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1589914326065461</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1383271844298741</v>
+        <v>0.1382540340236791</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1798572248284605</v>
+        <v>0.1805868852452212</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>132569</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>111872</v>
+        <v>111595</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>153823</v>
+        <v>154437</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2051999386770905</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1731629459595496</v>
+        <v>0.1727354692206383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2380989120452041</v>
+        <v>0.2390483328266003</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -9491,19 +9491,19 @@
         <v>194408</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>171644</v>
+        <v>171220</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>221183</v>
+        <v>217907</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3005042052688761</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2653171831697294</v>
+        <v>0.2646626916479785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3418924479531871</v>
+        <v>0.3368288893370167</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>300</v>
@@ -9512,19 +9512,19 @@
         <v>326977</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>296362</v>
+        <v>294556</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>358973</v>
+        <v>359978</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2528848702597728</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2292069748807121</v>
+        <v>0.2278108113081787</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2776310011062366</v>
+        <v>0.2784082390403214</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>144390</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>124223</v>
+        <v>123280</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>166359</v>
+        <v>166125</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2234974925067945</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1922810792017271</v>
+        <v>0.1908216568620067</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2575019482762417</v>
+        <v>0.2571403547921199</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>121</v>
@@ -9562,19 +9562,19 @@
         <v>126318</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>105107</v>
+        <v>107495</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>147899</v>
+        <v>148237</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1952558292016257</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1624685506385772</v>
+        <v>0.1661602078665426</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2286133742340145</v>
+        <v>0.2291362760049532</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>257</v>
@@ -9583,19 +9583,19 @@
         <v>270709</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>242434</v>
+        <v>243078</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>300251</v>
+        <v>299867</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2093669416862691</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1874992733811334</v>
+        <v>0.1879968967823441</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2322152435964339</v>
+        <v>0.2319180373692132</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>55148</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41582</v>
+        <v>42885</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>70777</v>
+        <v>73614</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08536260976816727</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06436351106219056</v>
+        <v>0.06638126809566454</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1095533807086844</v>
+        <v>0.1139456153135908</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -9633,19 +9633,19 @@
         <v>48808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36943</v>
+        <v>36544</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>63656</v>
+        <v>64311</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07544449666726943</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05710412000445468</v>
+        <v>0.05648733775587774</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09839575086385005</v>
+        <v>0.09940820819161261</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>97</v>
@@ -9654,19 +9654,19 @@
         <v>103956</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86871</v>
+        <v>84631</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127137</v>
+        <v>125462</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08040013996950264</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06718655347532229</v>
+        <v>0.06545377552556857</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0983280960235028</v>
+        <v>0.09703280919521547</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>243782</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>216872</v>
+        <v>217428</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>270812</v>
+        <v>270956</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3773438322562799</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3356901648027398</v>
+        <v>0.3365500991052883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4191828057244195</v>
+        <v>0.4194049754026516</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>131</v>
@@ -9704,19 +9704,19 @@
         <v>141989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>119284</v>
+        <v>121458</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>163018</v>
+        <v>162722</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2194780554723438</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1843827653748576</v>
+        <v>0.1877422330827729</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2519834300980452</v>
+        <v>0.2515266955778694</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>346</v>
@@ -9725,19 +9725,19 @@
         <v>385771</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>352733</v>
+        <v>354526</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>420647</v>
+        <v>424020</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2983566154779093</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2728047110967214</v>
+        <v>0.2741915587847162</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3253298361976224</v>
+        <v>0.3279380678192073</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>40119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27661</v>
+        <v>27965</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55161</v>
+        <v>54268</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.084114024575265</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0579950615832676</v>
+        <v>0.058632892871339</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1156534010633362</v>
+        <v>0.1137810762073608</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -9850,19 +9850,19 @@
         <v>70543</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55263</v>
+        <v>54965</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>88428</v>
+        <v>88808</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1426168614242092</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1117251161979022</v>
+        <v>0.1111226053302857</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1787758103696699</v>
+        <v>0.1795431310179692</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>94</v>
@@ -9871,19 +9871,19 @@
         <v>110661</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>91184</v>
+        <v>90365</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>134814</v>
+        <v>132709</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1138976393126663</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09385070935593502</v>
+        <v>0.09300753859426822</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1387566400000422</v>
+        <v>0.136590180600316</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>72800</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>54381</v>
+        <v>58516</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>90131</v>
+        <v>92040</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1526345283940438</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1140173444157667</v>
+        <v>0.1226876074267401</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1889721244926553</v>
+        <v>0.1929751931025912</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>115</v>
@@ -9921,19 +9921,19 @@
         <v>132452</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>112383</v>
+        <v>112086</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>152610</v>
+        <v>153930</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2677804217986968</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2272062949159103</v>
+        <v>0.226606101801244</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3085334619355937</v>
+        <v>0.3112026909570686</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>179</v>
@@ -9942,19 +9942,19 @@
         <v>205252</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>178351</v>
+        <v>177733</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>232082</v>
+        <v>232162</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2112549494278652</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1835666308602968</v>
+        <v>0.1829312389469072</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2388691105519474</v>
+        <v>0.2389516821930108</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>103643</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>86074</v>
+        <v>83815</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>123369</v>
+        <v>122174</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2173014795232926</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1804654449322665</v>
+        <v>0.1757304198297526</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2586611964105305</v>
+        <v>0.2561538714566695</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>95</v>
@@ -9992,19 +9992,19 @@
         <v>108645</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>90624</v>
+        <v>91218</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>129064</v>
+        <v>127817</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2196475926160779</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1832144834615629</v>
+        <v>0.1844171079466824</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2609296462680853</v>
+        <v>0.2584094111823652</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>189</v>
@@ -10013,19 +10013,19 @@
         <v>212288</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>187814</v>
+        <v>185700</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>243131</v>
+        <v>241196</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2184958785003253</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1933066028259329</v>
+        <v>0.1911308258751404</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2502413476469995</v>
+        <v>0.2482496659205149</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>39029</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>28046</v>
+        <v>28385</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>52597</v>
+        <v>52845</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08182943283581978</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05880142820258164</v>
+        <v>0.05951227385436962</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.110276689574007</v>
+        <v>0.1107976585127071</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>30</v>
@@ -10063,19 +10063,19 @@
         <v>32945</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21303</v>
+        <v>22396</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>44285</v>
+        <v>45273</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06660508591867817</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0430677922698561</v>
+        <v>0.04527767818555468</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08953234615663117</v>
+        <v>0.09152869023201472</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>66</v>
@@ -10084,19 +10084,19 @@
         <v>71974</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>55944</v>
+        <v>55942</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>88573</v>
+        <v>88901</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07407876453268307</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05758033182290092</v>
+        <v>0.05757769592689448</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09116371747361945</v>
+        <v>0.09150135914536016</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>221364</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>198906</v>
+        <v>197815</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>244741</v>
+        <v>245694</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4641205346715788</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4170335394646155</v>
+        <v>0.4147467626226052</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5131328033733902</v>
+        <v>0.5151323728447346</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>131</v>
@@ -10134,19 +10134,19 @@
         <v>150046</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>127687</v>
+        <v>128966</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>172705</v>
+        <v>173251</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.303350038242338</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2581452344612645</v>
+        <v>0.26073208882607</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3491588185077935</v>
+        <v>0.3502636266541613</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>326</v>
@@ -10155,19 +10155,19 @@
         <v>371411</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>342512</v>
+        <v>341404</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>405566</v>
+        <v>403983</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3822727682264601</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3525282618073377</v>
+        <v>0.3513879414573237</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4174265296311351</v>
+        <v>0.4157971669966743</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>19498</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11815</v>
+        <v>11693</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>31068</v>
+        <v>29748</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05850799814272558</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03545361598817481</v>
+        <v>0.0350869899158559</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09322741780308774</v>
+        <v>0.08926632838809939</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>50</v>
@@ -10280,19 +10280,19 @@
         <v>53443</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>41510</v>
+        <v>40629</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>69776</v>
+        <v>69096</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1414713812029794</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1098830726232995</v>
+        <v>0.1075510287300076</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1847100568118694</v>
+        <v>0.1829082660049028</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>68</v>
@@ -10301,19 +10301,19 @@
         <v>72941</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>57350</v>
+        <v>57607</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>89317</v>
+        <v>90557</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1025863434303511</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08065854502124653</v>
+        <v>0.08102132160555636</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1256184816511077</v>
+        <v>0.1273630081689762</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>39677</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29241</v>
+        <v>29624</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>52577</v>
+        <v>53441</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1190606645501153</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08774306225835189</v>
+        <v>0.08889167007122406</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1577677541783352</v>
+        <v>0.1603600022791443</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>75</v>
@@ -10351,19 +10351,19 @@
         <v>82770</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>66540</v>
+        <v>66705</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>100112</v>
+        <v>100374</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2191071901817176</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1761413677528572</v>
+        <v>0.1765783462184642</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.265014613652606</v>
+        <v>0.2657060124202155</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>115</v>
@@ -10372,19 +10372,19 @@
         <v>122448</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>102520</v>
+        <v>102243</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>143175</v>
+        <v>145616</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1722152628674751</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1441885464188819</v>
+        <v>0.143798055833146</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2013661937038813</v>
+        <v>0.2047999722843659</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>58902</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>45789</v>
+        <v>46283</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>73976</v>
+        <v>74221</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1767470028107957</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1373984147082125</v>
+        <v>0.1388828547612077</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2219820721978995</v>
+        <v>0.2227157199221417</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>66</v>
@@ -10422,19 +10422,19 @@
         <v>71478</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>55740</v>
+        <v>57208</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>87710</v>
+        <v>89275</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1892156659133135</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1475524310215922</v>
+        <v>0.1514389349591014</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2321823437906095</v>
+        <v>0.236326366260649</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>124</v>
@@ -10443,19 +10443,19 @@
         <v>130380</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>110964</v>
+        <v>110462</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>152833</v>
+        <v>151914</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1833715884681658</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1560634017858069</v>
+        <v>0.1553574043039943</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2149495540561468</v>
+        <v>0.2136570859368847</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>36950</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>26910</v>
+        <v>26163</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>51509</v>
+        <v>50543</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1108758739486461</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08074784816848156</v>
+        <v>0.07850635493308394</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1545651274197516</v>
+        <v>0.1516641864445207</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -10493,19 +10493,19 @@
         <v>18366</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11352</v>
+        <v>11415</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>28203</v>
+        <v>27813</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04861920779072827</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03005167366310609</v>
+        <v>0.03021855376116258</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.0746571488177229</v>
+        <v>0.07362517812998069</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>54</v>
@@ -10514,19 +10514,19 @@
         <v>55316</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>41633</v>
+        <v>41831</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>70011</v>
+        <v>70101</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0777989823593515</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.05855366919502493</v>
+        <v>0.05883287275537195</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.09846563822576028</v>
+        <v>0.09859211064499758</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>178227</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>160118</v>
+        <v>159401</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>196358</v>
+        <v>196568</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5348084605477174</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4804678943393523</v>
+        <v>0.4783156383893793</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5892138493803318</v>
+        <v>0.5898444859086642</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>144</v>
@@ -10564,19 +10564,19 @@
         <v>151704</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>133179</v>
+        <v>132235</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>171976</v>
+        <v>171434</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4015865549112612</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3525470340722675</v>
+        <v>0.3500496945448432</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.455250715931911</v>
+        <v>0.4538140842009113</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>317</v>
@@ -10585,19 +10585,19 @@
         <v>329931</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>304525</v>
+        <v>303803</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>358070</v>
+        <v>356513</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4640278228746564</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4282954828724005</v>
+        <v>0.4272800721889489</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5036026515712063</v>
+        <v>0.5014140766001487</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>6613</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>3090</v>
+        <v>3216</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12255</v>
+        <v>13068</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02582061399719118</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01206469576219714</v>
+        <v>0.01255780550934115</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0478469801847362</v>
+        <v>0.05102240143393776</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>28</v>
@@ -10710,19 +10710,19 @@
         <v>39176</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>26467</v>
+        <v>26164</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>54376</v>
+        <v>56984</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09821102136130477</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.06635072957396849</v>
+        <v>0.06558982103445664</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1363150106496756</v>
+        <v>0.1428523221050018</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>36</v>
@@ -10731,19 +10731,19 @@
         <v>45790</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>32859</v>
+        <v>31311</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>62763</v>
+        <v>62501</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06990472812457305</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05016360387302311</v>
+        <v>0.04780043197170937</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09581748588422029</v>
+        <v>0.09541740027243963</v>
       </c>
     </row>
     <row r="41">
@@ -10760,19 +10760,19 @@
         <v>23569</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16480</v>
+        <v>16268</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>34140</v>
+        <v>32879</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.09202065301817137</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06434304320257911</v>
+        <v>0.06351414165437652</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1332895875151934</v>
+        <v>0.1283669636062516</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>37</v>
@@ -10781,19 +10781,19 @@
         <v>48878</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>35162</v>
+        <v>34711</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>64882</v>
+        <v>64125</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1225329897038741</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08814682246329789</v>
+        <v>0.08701737850745701</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1626537271753123</v>
+        <v>0.1607553454124217</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>65</v>
@@ -10802,19 +10802,19 @@
         <v>72447</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>57578</v>
+        <v>56968</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>90553</v>
+        <v>90875</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1106019731367323</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08790161904145059</v>
+        <v>0.08696987738691327</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1382432022849069</v>
+        <v>0.1387342429680989</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>32195</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>23671</v>
+        <v>23230</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>42591</v>
+        <v>42368</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1256967496735562</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0924168911156734</v>
+        <v>0.09069470888370215</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.166285061985178</v>
+        <v>0.1654150954482818</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>54</v>
@@ -10852,19 +10852,19 @@
         <v>71651</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>55996</v>
+        <v>55843</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>90215</v>
+        <v>92866</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1796214740611189</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1403767505195261</v>
+        <v>0.1399928169933314</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2261611635303339</v>
+        <v>0.2328071783874888</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>92</v>
@@ -10873,19 +10873,19 @@
         <v>103845</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>85447</v>
+        <v>83862</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>123139</v>
+        <v>124369</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1585356822165356</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1304483972182152</v>
+        <v>0.1280281300673839</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1879903652786239</v>
+        <v>0.1898674639094914</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>19337</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>12882</v>
+        <v>13300</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>28310</v>
+        <v>28821</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07549548387054066</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.05029382382869341</v>
+        <v>0.05192721233012242</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1105279710558714</v>
+        <v>0.1125239818582457</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>25</v>
@@ -10923,19 +10923,19 @@
         <v>32379</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>20430</v>
+        <v>22260</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>44887</v>
+        <v>46141</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08117000629141234</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05121622675145198</v>
+        <v>0.05580345235024413</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1125277894685599</v>
+        <v>0.1156717991845246</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>48</v>
@@ -10944,19 +10944,19 @@
         <v>51715</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>38235</v>
+        <v>37967</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>66678</v>
+        <v>67105</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07895113915870396</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.05837197120267942</v>
+        <v>0.05796201329092629</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1017944978310072</v>
+        <v>0.1024452861738928</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>174417</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>160523</v>
+        <v>160542</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>187198</v>
+        <v>188149</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6809664994405406</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6267206738569665</v>
+        <v>0.6267960019975649</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7308675304975402</v>
+        <v>0.7345808378286917</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>156</v>
@@ -10994,19 +10994,19 @@
         <v>206814</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>184512</v>
+        <v>180818</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>229166</v>
+        <v>228236</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5184645085822899</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.462553246920761</v>
+        <v>0.4532939496205484</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5744981272216885</v>
+        <v>0.5721672377341017</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>360</v>
@@ -11015,19 +11015,19 @@
         <v>381231</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>355797</v>
+        <v>354872</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>406644</v>
+        <v>409328</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5820064773634551</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5431780557228771</v>
+        <v>0.5417649687545639</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6208026782702775</v>
+        <v>0.6249006863794129</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>348394</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>310426</v>
+        <v>310298</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>382607</v>
+        <v>387346</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1030418618226169</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.09181241988190315</v>
+        <v>0.09177453342942397</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1131607817326188</v>
+        <v>0.1145624577055722</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>590</v>
@@ -11140,19 +11140,19 @@
         <v>630107</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>584911</v>
+        <v>584769</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>677037</v>
+        <v>683543</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1781754146714156</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1653955193545008</v>
+        <v>0.1653551180190765</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1914457298071703</v>
+        <v>0.1932856443580741</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>908</v>
@@ -11161,19 +11161,19 @@
         <v>978501</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>918996</v>
+        <v>915230</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1041898</v>
+        <v>1039270</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1414522860244374</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.132850282116652</v>
+        <v>0.1323057823925287</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1506169781395684</v>
+        <v>0.1502370267978508</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>743587</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>699430</v>
+        <v>696294</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>793093</v>
+        <v>795721</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2199249875269568</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2068651220569931</v>
+        <v>0.2059377532916291</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2345670798852716</v>
+        <v>0.2353443456228028</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>993</v>
@@ -11211,19 +11211,19 @@
         <v>1027486</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>976712</v>
+        <v>975235</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1085556</v>
+        <v>1085927</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2905424921024696</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.276185100583605</v>
+        <v>0.2757673322099523</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3069627105340799</v>
+        <v>0.3070676997485992</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1698</v>
@@ -11232,19 +11232,19 @@
         <v>1771073</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1691785</v>
+        <v>1703263</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1841708</v>
+        <v>1848318</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2560266785022001</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2445648558183375</v>
+        <v>0.2462241108219404</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2662377008680935</v>
+        <v>0.2671932252323665</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>755891</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>709450</v>
+        <v>709717</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>803423</v>
+        <v>811792</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2235641008223244</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2098287959946193</v>
+        <v>0.2099077499148155</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2376223852663889</v>
+        <v>0.2400976095106948</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>703</v>
@@ -11282,19 +11282,19 @@
         <v>737326</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>694840</v>
+        <v>689198</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>790039</v>
+        <v>784997</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2084937575597863</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1964799885082668</v>
+        <v>0.1948846920571136</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2233994987717506</v>
+        <v>0.2219737596343767</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1430</v>
@@ -11303,19 +11303,19 @@
         <v>1493217</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1428634</v>
+        <v>1428396</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1565756</v>
+        <v>1567110</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2158597096996785</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2065236614063667</v>
+        <v>0.2064891598418716</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2263460572346194</v>
+        <v>0.226541765373829</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>279126</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>251453</v>
+        <v>248406</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>315059</v>
+        <v>317762</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.08255493052327899</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.07437035153980551</v>
+        <v>0.07346908892866683</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.09318271728884982</v>
+        <v>0.09398207089486778</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>194</v>
@@ -11353,19 +11353,19 @@
         <v>202929</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>176475</v>
+        <v>176454</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>231199</v>
+        <v>232047</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.05738227362813887</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.04990181010966361</v>
+        <v>0.04989597788833253</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.06537607835331478</v>
+        <v>0.0656160112412138</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>459</v>
@@ -11374,19 +11374,19 @@
         <v>482055</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>437498</v>
+        <v>442091</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>525933</v>
+        <v>530548</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.06968594731979573</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.06324473928812663</v>
+        <v>0.06390877777903861</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.07602893928377226</v>
+        <v>0.07669617870127066</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>1254095</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1199512</v>
+        <v>1201781</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1309910</v>
+        <v>1315516</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3709141193048229</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3547704688293918</v>
+        <v>0.3554416062109928</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3874222270003584</v>
+        <v>0.3890801279285775</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>851</v>
@@ -11424,19 +11424,19 @@
         <v>938593</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>886510</v>
+        <v>887217</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>998180</v>
+        <v>990477</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2654060620381896</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2506786943751497</v>
+        <v>0.2508785827504819</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2822554773591152</v>
+        <v>0.2800773690288736</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2054</v>
@@ -11445,19 +11445,19 @@
         <v>2192688</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2116910</v>
+        <v>2104546</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2274126</v>
+        <v>2269753</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3169753784538883</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3060209327964304</v>
+        <v>0.3042335813551421</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3287481489389797</v>
+        <v>0.3281159131160808</v>
       </c>
     </row>
     <row r="51">
